--- a/List of bugs.xlsx
+++ b/List of bugs.xlsx
@@ -1,19 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Testing\Project\2021.APCS.CS423.GroupG.2-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACC7967-D89A-49F6-AB49-BE1F713A3BF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Bugs" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Defect Severity" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Examples" sheetId="3" r:id="rId6"/>
+    <sheet name="Bugs" sheetId="1" r:id="rId1"/>
+    <sheet name="Defect Severity" sheetId="2" r:id="rId2"/>
+    <sheet name="Examples" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -319,43 +339,47 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>1. Enter User Name : " "
 2.Enter Password : "</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
-        <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>abcd</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>"
 3. Click "</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
-        <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>Ok</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>" button</t>
     </r>
@@ -369,83 +393,146 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>1. Enter User Name : " "
 2.Enter Password : "</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
-        <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>abcd</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>"
 3. Click "</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
-        <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>Ok</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>" button</t>
     </r>
+  </si>
+  <si>
+    <t>Tri</t>
+  </si>
+  <si>
+    <t>Accept incorrect username with all uppercase letters</t>
+  </si>
+  <si>
+    <t>1. Login with username with all letters in uppercase, same password. 2. Can still login</t>
+  </si>
+  <si>
+    <t>Accept incorrect username with mixed case letters</t>
+  </si>
+  <si>
+    <t>1. Login with username with letters with random case, same password. 2. Can still login</t>
+  </si>
+  <si>
+    <t>Accept incorrect username with added space at the end</t>
+  </si>
+  <si>
+    <t>1. Login with username with an added space at the end, same password. 2. Can still login</t>
+  </si>
+  <si>
+    <t>Accept incorrect username with added space at the start</t>
+  </si>
+  <si>
+    <t>1. Login with username with an added space at the start, same password. 2. Can still login</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Choosing to show all items in one page, when no product matches search term, produces error</t>
+  </si>
+  <si>
+    <t>1. Search for a search term that matches no product, like "qwe". 2. In the result page, select "All" in the menu. 3. Error message will be displayed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -453,7 +540,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -475,7 +562,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -489,91 +582,66 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -763,31 +831,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3.0" ySplit="1.0" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D1" sqref="D1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="D2" sqref="D2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.86"/>
-    <col customWidth="1" min="2" max="2" width="27.14"/>
-    <col customWidth="1" min="3" max="3" width="67.71"/>
-    <col customWidth="1" min="4" max="4" width="62.0"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" customWidth="1"/>
+    <col min="4" max="4" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -831,7 +902,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -852,7 +923,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -873,7 +944,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -894,7 +965,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -915,7 +986,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -936,7 +1007,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -957,7 +1028,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -978,7 +1049,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -999,7 +1070,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>42</v>
       </c>
@@ -1020,7 +1091,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -1041,7 +1112,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>48</v>
       </c>
@@ -1062,7 +1133,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -1083,7 +1154,7 @@
       </c>
       <c r="G14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>55</v>
       </c>
@@ -1104,7 +1175,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -1125,7 +1196,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>61</v>
       </c>
@@ -1146,7 +1217,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
@@ -1167,7 +1238,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>68</v>
       </c>
@@ -1188,7 +1259,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>71</v>
       </c>
@@ -1209,7 +1280,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>75</v>
       </c>
@@ -1230,7 +1301,7 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
@@ -1251,7 +1322,7 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
@@ -1272,30 +1343,136 @@
       </c>
       <c r="G23" s="8"/>
     </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.86"/>
-    <col customWidth="1" min="2" max="2" width="29.29"/>
-    <col customWidth="1" min="3" max="3" width="124.14"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="124.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>87</v>
       </c>
@@ -1306,74 +1483,75 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="14">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="3" width="40.86"/>
-    <col customWidth="1" min="4" max="4" width="24.14"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1417,7 +1595,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1439,6 +1617,6 @@
       <c r="G3" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>